--- a/Documentation/test-case-document.xlsx
+++ b/Documentation/test-case-document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alper.A0D3C12B02EA\Documents\GitHub\Software_Validation_Project_\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dosyalar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E9F41B-B152-4C9E-ACCE-200C65A634F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A778113-1E12-4E28-A859-CDCB4A690771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -617,6 +617,9 @@
       </rPr>
       <t>"Change The World, My Final Mrrrrrr"</t>
     </r>
+  </si>
+  <si>
+    <t>Data must be send.</t>
   </si>
 </sst>
 </file>
@@ -1180,6 +1183,57 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,68 +1243,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1665,31 +1668,31 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5"/>
@@ -1704,68 +1707,68 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="13" t="s">
         <v>15</v>
       </c>
@@ -1780,11 +1783,11 @@
       <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17" t="s">
         <v>20</v>
@@ -1809,11 +1812,11 @@
       <c r="C13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="16"/>
       <c r="H13" s="21" t="s">
         <v>20</v>
@@ -1838,11 +1841,11 @@
       <c r="C14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="16"/>
       <c r="H14" s="22" t="s">
         <v>32</v>
@@ -1858,11 +1861,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -1882,11 +1885,11 @@
       <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="16"/>
       <c r="H16" s="22" t="s">
         <v>39</v>
@@ -1911,11 +1914,11 @@
       <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17" t="s">
         <v>39</v>
@@ -1940,11 +1943,11 @@
       <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="16"/>
       <c r="H18" s="21" t="s">
         <v>51</v>
@@ -1960,18 +1963,18 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="87.75" customHeight="1">
@@ -1984,11 +1987,11 @@
       <c r="C20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
         <v>58</v>
@@ -2013,11 +2016,11 @@
       <c r="C21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="29"/>
       <c r="H21" s="31" t="s">
         <v>64</v>
@@ -2033,71 +2036,71 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="64" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" ht="89.25">
@@ -2110,11 +2113,11 @@
       <c r="C26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="19"/>
       <c r="H26" s="21" t="s">
         <v>20</v>
@@ -2145,9 +2148,9 @@
       <c r="A28" s="32"/>
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="38"/>
@@ -2155,27 +2158,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D28:F28"/>
@@ -2188,6 +2170,27 @@
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2223,31 +2226,31 @@
       <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5"/>
@@ -2262,61 +2265,61 @@
       <c r="D7" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="57"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
@@ -2338,12 +2341,12 @@
       <c r="C13" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="20">
         <v>5</v>
       </c>
@@ -2367,11 +2370,11 @@
       <c r="C14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="16"/>
       <c r="H14" s="26">
         <v>5</v>
@@ -2396,12 +2399,12 @@
       <c r="C15" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="26">
         <v>5</v>
       </c>
@@ -2425,11 +2428,11 @@
       <c r="C16" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="16"/>
       <c r="H16" s="26">
         <v>5</v>
@@ -2445,18 +2448,18 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11" ht="90" customHeight="1">
@@ -2469,11 +2472,11 @@
       <c r="C18" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="49"/>
       <c r="H18" s="50">
         <v>5</v>
@@ -2498,11 +2501,11 @@
       <c r="C19" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="29"/>
       <c r="H19" s="51">
         <v>5</v>
@@ -2519,6 +2522,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -2526,18 +2541,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2572,31 +2575,31 @@
       <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
@@ -2611,62 +2614,62 @@
       <c r="D7" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="59" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="57"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="13" t="s">
         <v>15</v>
       </c>
@@ -2681,11 +2684,11 @@
       <c r="C13" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="16"/>
       <c r="H13" s="48" t="s">
         <v>40</v>
@@ -2707,11 +2710,11 @@
       <c r="C14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="16"/>
       <c r="H14" s="48" t="s">
         <v>40</v>
@@ -2724,11 +2727,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -2747,11 +2750,11 @@
       <c r="C16" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="16"/>
       <c r="H16" s="48" t="s">
         <v>40</v>
@@ -2764,11 +2767,11 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -2786,11 +2789,11 @@
       <c r="C18" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="16"/>
       <c r="H18" s="48" t="s">
         <v>40</v>
@@ -2804,6 +2807,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -2811,16 +2824,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2831,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD5D97A-03F5-4770-B6FE-4D9D67BDC6DF}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2852,31 +2855,31 @@
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="82.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
@@ -2892,58 +2895,58 @@
     </row>
     <row r="7" spans="1:9" ht="28.5" customHeight="1"/>
     <row r="8" spans="1:9">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="59" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="13" t="s">
         <v>15</v>
       </c>
@@ -2958,39 +2961,34 @@
       <c r="C12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="48" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I12" s="20">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -2999,6 +2997,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
